--- a/docs/v043/ValueSet-ZonaResidenciaVS.xlsx
+++ b/docs/v043/ValueSet-ZonaResidenciaVS.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Zona de residenc" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
